--- a/Yeriel/Hito 2/Plantilla_Lista_de_Tareas_de_la_revisión_4.xlsx
+++ b/Yeriel/Hito 2/Plantilla_Lista_de_Tareas_de_la_revisión_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YZ\Repos\EmpenioFacil\Yeriel\Hito 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC208D10-5A7C-4670-8CA2-A69A5DF0C4D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DF1FE3-D8B3-4A9A-923E-640E5B50F38D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,10 +693,10 @@
   <dimension ref="B1:BA17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="W12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,60 +1855,62 @@
         <v>1</v>
       </c>
       <c r="AB13" s="10"/>
-      <c r="AC13" s="8"/>
+      <c r="AC13" s="8">
+        <v>1</v>
+      </c>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -2042,7 +2044,7 @@
         <v>54</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5">
         <v>2</v>
@@ -2089,60 +2091,62 @@
         <v>2</v>
       </c>
       <c r="AB15" s="10"/>
-      <c r="AC15" s="8"/>
+      <c r="AC15" s="8">
+        <v>2</v>
+      </c>
       <c r="AD15" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="10"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="10"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="10"/>
       <c r="AL15" s="8"/>
       <c r="AM15" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="10"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="8"/>
       <c r="AS15" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="10"/>
       <c r="AU15" s="8"/>
       <c r="AV15" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="10"/>
       <c r="AX15" s="8"/>
       <c r="AY15" s="8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA15" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -2208,54 +2212,58 @@
         <v>3</v>
       </c>
       <c r="AE16" s="10"/>
-      <c r="AF16" s="8"/>
+      <c r="AF16" s="8">
+        <v>2</v>
+      </c>
       <c r="AG16" s="8">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="10"/>
-      <c r="AI16" s="8"/>
+      <c r="AI16" s="8">
+        <v>2</v>
+      </c>
       <c r="AJ16" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AK16" s="10"/>
       <c r="AL16" s="8"/>
       <c r="AM16" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AN16" s="10"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="8"/>
       <c r="AS16" s="8">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AT16" s="10"/>
       <c r="AU16" s="8"/>
       <c r="AV16" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW16" s="10"/>
       <c r="AX16" s="8"/>
       <c r="AY16" s="8">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AZ16" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA16" s="11">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -2373,11 +2381,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2389,6 +2392,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
